--- a/results/08-2023/contributions-comparison-08-2023.xlsx
+++ b/results/08-2023/contributions-comparison-08-2023.xlsx
@@ -1912,16 +1912,16 @@
         <v>-4.8299</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.5026</v>
+        <v>-2.4186</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.9763</v>
+        <v>-0.9767</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0816</v>
+        <v>0.0753</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.7839</v>
+        <v>-0.3713</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -1953,31 +1953,31 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="n">
-        <v>-0.376</v>
+        <v>-0.0351</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.2835</v>
+        <v>0.2572</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.5339</v>
+        <v>0.0139</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.0419</v>
+        <v>0.9707</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.062</v>
+        <v>0.0487</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0595</v>
+        <v>0.0594</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.0679</v>
+        <v>-0.323</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.12</v>
+        <v>-0.6118</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0823</v>
+        <v>0.072</v>
       </c>
     </row>
     <row r="32">
@@ -4544,16 +4544,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0022</v>
+        <v>0.0862</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.0766</v>
+        <v>-0.077</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.0743</v>
+        <v>0.0826</v>
       </c>
       <c r="L86" t="n">
-        <v>-0.0437</v>
+        <v>0.369</v>
       </c>
       <c r="M86"/>
       <c r="N86"/>
@@ -4585,31 +4585,31 @@
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87" t="n">
-        <v>-0.0715</v>
+        <v>0.2694</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0091</v>
+        <v>0.5498</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0139</v>
+        <v>0.5617</v>
       </c>
       <c r="P87" t="n">
-        <v>-0.0244</v>
+        <v>0.9883</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.0044</v>
+        <v>0.1151</v>
       </c>
       <c r="R87" t="n">
-        <v>0.0018</v>
+        <v>0.0016</v>
       </c>
       <c r="S87" t="n">
-        <v>0.0043</v>
+        <v>-0.2508</v>
       </c>
       <c r="T87" t="n">
-        <v>72.5899</v>
+        <v>72.098</v>
       </c>
       <c r="U87" t="n">
-        <v>1.967</v>
+        <v>1.9566</v>
       </c>
     </row>
     <row r="88">

--- a/results/08-2023/contributions-comparison-08-2023.xlsx
+++ b/results/08-2023/contributions-comparison-08-2023.xlsx
@@ -1912,16 +1912,16 @@
         <v>-4.8299</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.4186</v>
+        <v>-2.2786</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.9767</v>
+        <v>-0.9468</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0753</v>
+        <v>0.3035</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.3713</v>
+        <v>-0.2685</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -1953,31 +1953,31 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="n">
-        <v>-0.0351</v>
+        <v>0.1537</v>
       </c>
       <c r="N31" t="n">
-        <v>0.2572</v>
+        <v>0.0528</v>
       </c>
       <c r="O31" t="n">
-        <v>0.0139</v>
+        <v>-0.3846</v>
       </c>
       <c r="P31" t="n">
-        <v>0.9707</v>
+        <v>-0.094</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.0487</v>
+        <v>-0.2777</v>
       </c>
       <c r="R31" t="n">
-        <v>0.0594</v>
+        <v>-0.1541</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.323</v>
+        <v>-0.7807</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.6118</v>
+        <v>-0.5667</v>
       </c>
       <c r="U31" t="n">
-        <v>0.072</v>
+        <v>0.0906</v>
       </c>
     </row>
     <row r="32">
@@ -4544,16 +4544,16 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.0862</v>
+        <v>0.2262</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.077</v>
+        <v>-0.0471</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0826</v>
+        <v>0.3108</v>
       </c>
       <c r="L86" t="n">
-        <v>0.369</v>
+        <v>0.4717</v>
       </c>
       <c r="M86"/>
       <c r="N86"/>
@@ -4585,31 +4585,31 @@
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87" t="n">
-        <v>0.2694</v>
+        <v>0.4582</v>
       </c>
       <c r="N87" t="n">
-        <v>0.5498</v>
+        <v>0.3454</v>
       </c>
       <c r="O87" t="n">
-        <v>0.5617</v>
+        <v>0.1632</v>
       </c>
       <c r="P87" t="n">
-        <v>0.9883</v>
+        <v>-0.0765</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.1151</v>
+        <v>-0.2112</v>
       </c>
       <c r="R87" t="n">
-        <v>0.0016</v>
+        <v>-0.2118</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.2508</v>
+        <v>-0.7086</v>
       </c>
       <c r="T87" t="n">
-        <v>72.098</v>
+        <v>72.1432</v>
       </c>
       <c r="U87" t="n">
-        <v>1.9566</v>
+        <v>1.9752</v>
       </c>
     </row>
     <row r="88">

--- a/results/08-2023/contributions-comparison-08-2023.xlsx
+++ b/results/08-2023/contributions-comparison-08-2023.xlsx
@@ -605,7 +605,7 @@
         <v>0.0101</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0065</v>
+        <v>0.0062</v>
       </c>
       <c r="M2"/>
       <c r="N2"/>
@@ -837,7 +837,7 @@
         <v>-0.0179</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0682</v>
+        <v>-0.0683</v>
       </c>
       <c r="R7" t="n">
         <v>-0.0296</v>
@@ -846,10 +846,10 @@
         <v>-0.0286</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0269</v>
+        <v>-0.027</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.0262</v>
+        <v>-0.0263</v>
       </c>
     </row>
     <row r="8">
@@ -887,7 +887,7 @@
         <v>0.1308</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.2314</v>
+        <v>-0.1969</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -919,31 +919,31 @@
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9" t="n">
-        <v>-0.1857</v>
+        <v>-0.186</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.1942</v>
+        <v>-0.1945</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.3946</v>
+        <v>-0.3951</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.4932</v>
+        <v>-0.4939</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.1428</v>
+        <v>-0.143</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.1424</v>
+        <v>-0.1426</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.4593</v>
+        <v>-0.46</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.4577</v>
+        <v>-0.4584</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.1226</v>
+        <v>-0.1227</v>
       </c>
     </row>
     <row r="10">
@@ -981,7 +981,7 @@
         <v>-0.0546</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0595</v>
+        <v>-0.0499</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -1013,31 +1013,31 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>-0.0426</v>
+        <v>-0.0331</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0374</v>
+        <v>-0.028</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0258</v>
+        <v>-0.0166</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0111</v>
+        <v>-0.0021</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0134</v>
+        <v>-0.0045</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.0026</v>
+        <v>0.0061</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0066</v>
+        <v>0.0077</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0033</v>
+        <v>0.0232</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0101</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="12">
@@ -1075,7 +1075,7 @@
         <v>-0.04</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0632</v>
+        <v>0.0647</v>
       </c>
       <c r="M12"/>
       <c r="N12"/>
@@ -1107,31 +1107,31 @@
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13" t="n">
-        <v>0.0264</v>
+        <v>-0.0083</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0047</v>
+        <v>-0.0386</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0945</v>
+        <v>-0.1277</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.092</v>
+        <v>-0.126</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0639</v>
+        <v>-0.0625</v>
       </c>
       <c r="R13" t="n">
-        <v>0.0052</v>
+        <v>0.0066</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0699</v>
+        <v>0.0712</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1162</v>
+        <v>0.1177</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1625</v>
+        <v>0.1641</v>
       </c>
     </row>
     <row r="14">
@@ -1169,7 +1169,7 @@
         <v>0.2526</v>
       </c>
       <c r="L14" t="n">
-        <v>0.3161</v>
+        <v>0.3134</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -1201,31 +1201,31 @@
       <c r="K15"/>
       <c r="L15"/>
       <c r="M15" t="n">
-        <v>0.1783</v>
+        <v>0.1311</v>
       </c>
       <c r="N15" t="n">
-        <v>0.2451</v>
+        <v>0.1561</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5261</v>
+        <v>0.4183</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5233</v>
+        <v>0.3973</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.5536</v>
+        <v>0.4102</v>
       </c>
       <c r="R15" t="n">
-        <v>0.4624</v>
+        <v>0.2994</v>
       </c>
       <c r="S15" t="n">
-        <v>0.2485</v>
+        <v>0.0696</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2756</v>
+        <v>0.0846</v>
       </c>
       <c r="U15" t="n">
-        <v>0.2637</v>
+        <v>0.0789</v>
       </c>
     </row>
     <row r="16">
@@ -1357,7 +1357,7 @@
         <v>-0.0899</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.0972</v>
+        <v>-0.0971</v>
       </c>
       <c r="M18"/>
       <c r="N18"/>
@@ -1389,22 +1389,22 @@
       <c r="K19"/>
       <c r="L19"/>
       <c r="M19" t="n">
-        <v>-0.096</v>
+        <v>-0.0961</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0983</v>
+        <v>-0.0985</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0632</v>
+        <v>-0.0633</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.0498</v>
+        <v>-0.0499</v>
       </c>
       <c r="Q19" t="n">
         <v>-0.0442</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.0263</v>
+        <v>-0.0264</v>
       </c>
       <c r="S19" t="n">
         <v>-0.0105</v>
@@ -1451,7 +1451,7 @@
         <v>0.0079</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0065</v>
+        <v>0.0058</v>
       </c>
       <c r="M20"/>
       <c r="N20"/>
@@ -1545,7 +1545,7 @@
         <v>0.0463</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0805</v>
+        <v>0.0841</v>
       </c>
       <c r="M22"/>
       <c r="N22"/>
@@ -1577,31 +1577,31 @@
       <c r="K23"/>
       <c r="L23"/>
       <c r="M23" t="n">
-        <v>0.1297</v>
+        <v>0.1334</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0755</v>
+        <v>-0.0722</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.1626</v>
+        <v>-0.1594</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.0768</v>
+        <v>-0.077</v>
       </c>
       <c r="Q23" t="n">
-        <v>-0.0708</v>
+        <v>-0.0709</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.0376</v>
+        <v>-0.0377</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.074</v>
+        <v>-0.0742</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.0722</v>
+        <v>-0.0723</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.0691</v>
+        <v>-0.0693</v>
       </c>
     </row>
     <row r="24">
@@ -1615,31 +1615,31 @@
         <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.0646</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.0296</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.0274</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.0173</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-0.0131</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>-0.0124</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>-0.0118</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.0109</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-0.0095</v>
       </c>
       <c r="M24"/>
       <c r="N24"/>
@@ -1671,31 +1671,31 @@
       <c r="K25"/>
       <c r="L25"/>
       <c r="M25" t="n">
-        <v>0.0043</v>
+        <v>-0.1368</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0031</v>
+        <v>-0.1146</v>
       </c>
       <c r="O25" t="n">
-        <v>0.004</v>
+        <v>-0.104</v>
       </c>
       <c r="P25" t="n">
-        <v>0.0022</v>
+        <v>-0.0952</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.0021</v>
+        <v>-0.0561</v>
       </c>
       <c r="R25" t="n">
-        <v>0.0018</v>
+        <v>-0.0305</v>
       </c>
       <c r="S25" t="n">
-        <v>0.0017</v>
+        <v>-0.0302</v>
       </c>
       <c r="T25" t="n">
-        <v>0.0017</v>
+        <v>-0.0238</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0017</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="26">
@@ -1765,28 +1765,28 @@
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27" t="n">
-        <v>-0.5761</v>
+        <v>-0.5769</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.2263</v>
+        <v>-0.2266</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.1787</v>
+        <v>-0.1789</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.3214</v>
+        <v>-0.3218</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2393</v>
+        <v>-0.2396</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.1041</v>
+        <v>-0.1042</v>
       </c>
       <c r="S27" t="n">
         <v>-0.0329</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0262</v>
+        <v>-0.0263</v>
       </c>
       <c r="U27" t="n">
         <v>-0.0193</v>
@@ -1859,10 +1859,10 @@
       <c r="K29"/>
       <c r="L29"/>
       <c r="M29" t="n">
-        <v>-0.1293</v>
+        <v>-0.1294</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0075</v>
+        <v>-0.0076</v>
       </c>
       <c r="O29" t="n">
         <v>-0.0014</v>
@@ -1897,31 +1897,31 @@
         <v>23</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.1407</v>
+        <v>-2.0761</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.525</v>
+        <v>-2.4954</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.1302</v>
+        <v>-3.1028</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.8752</v>
+        <v>-3.8579</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.8299</v>
+        <v>-4.8431</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.2786</v>
+        <v>-2.3359</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.9468</v>
+        <v>-0.9889</v>
       </c>
       <c r="K30" t="n">
-        <v>0.3035</v>
+        <v>0.2775</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.2685</v>
+        <v>-0.2151</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -1953,31 +1953,31 @@
       <c r="K31"/>
       <c r="L31"/>
       <c r="M31" t="n">
-        <v>0.1537</v>
+        <v>-0.1467</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0528</v>
+        <v>-0.1349</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.3846</v>
+        <v>-0.5118</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.094</v>
+        <v>-0.3448</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.2777</v>
+        <v>-0.395</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.1541</v>
+        <v>-0.2597</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.7807</v>
+        <v>-0.4655</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.5667</v>
+        <v>-0.5068</v>
       </c>
       <c r="U31" t="n">
-        <v>0.0906</v>
+        <v>-0.2111</v>
       </c>
     </row>
     <row r="32">
@@ -2015,7 +2015,7 @@
         <v>26529.8</v>
       </c>
       <c r="L32" t="n">
-        <v>26835</v>
+        <v>26798.6</v>
       </c>
       <c r="M32"/>
       <c r="N32"/>
@@ -2047,31 +2047,31 @@
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33" t="n">
-        <v>27066.6327</v>
+        <v>27029.9185</v>
       </c>
       <c r="N33" t="n">
-        <v>27338.6735</v>
+        <v>27301.5903</v>
       </c>
       <c r="O33" t="n">
-        <v>27651.3265</v>
+        <v>27613.8192</v>
       </c>
       <c r="P33" t="n">
-        <v>27981.7347</v>
+        <v>27943.7792</v>
       </c>
       <c r="Q33" t="n">
-        <v>28318.8776</v>
+        <v>28280.4648</v>
       </c>
       <c r="R33" t="n">
-        <v>28667.9592</v>
+        <v>28629.0729</v>
       </c>
       <c r="S33" t="n">
-        <v>29023.6735</v>
+        <v>28984.3047</v>
       </c>
       <c r="T33" t="n">
-        <v>29370.9184</v>
+        <v>29331.0786</v>
       </c>
       <c r="U33" t="n">
-        <v>29713.2653</v>
+        <v>29672.9611</v>
       </c>
     </row>
     <row r="34">
@@ -2109,7 +2109,7 @@
         <v>-0.141</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.1731</v>
+        <v>-0.1584</v>
       </c>
       <c r="M34"/>
       <c r="N34"/>
@@ -2141,28 +2141,28 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35" t="n">
-        <v>-0.1349</v>
+        <v>-0.1351</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.0605</v>
+        <v>-0.0606</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.2613</v>
+        <v>-0.2616</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.3741</v>
+        <v>-0.3746</v>
       </c>
       <c r="Q35" t="n">
-        <v>-0.0169</v>
+        <v>-0.017</v>
       </c>
       <c r="R35" t="n">
         <v>0.0097</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3161</v>
+        <v>-0.3166</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.1951</v>
+        <v>-0.1953</v>
       </c>
       <c r="U35" t="n">
         <v>-0.0385</v>
@@ -2332,10 +2332,10 @@
         <v>-0.0127</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.0125</v>
+        <v>-0.0126</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.6083</v>
+        <v>-0.6091</v>
       </c>
       <c r="P39" t="n">
         <v>-0.0001</v>
@@ -2423,7 +2423,7 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41" t="n">
-        <v>-0.0331</v>
+        <v>-0.0332</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0.4279</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3665</v>
+        <v>0.463</v>
       </c>
       <c r="M42"/>
       <c r="N42"/>
@@ -2517,31 +2517,31 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43" t="n">
-        <v>0.0923</v>
+        <v>0.0924</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0444</v>
+        <v>0.0445</v>
       </c>
       <c r="O43" t="n">
-        <v>0.2217</v>
+        <v>0.222</v>
       </c>
       <c r="P43" t="n">
-        <v>0.3137</v>
+        <v>0.314</v>
       </c>
       <c r="Q43" t="n">
-        <v>-0.0626</v>
+        <v>-0.0628</v>
       </c>
       <c r="R43" t="n">
-        <v>-0.1093</v>
+        <v>-0.1095</v>
       </c>
       <c r="S43" t="n">
-        <v>0.2144</v>
+        <v>0.2146</v>
       </c>
       <c r="T43" t="n">
-        <v>0.1061</v>
+        <v>0.1062</v>
       </c>
       <c r="U43" t="n">
-        <v>-0.0685</v>
+        <v>-0.0687</v>
       </c>
     </row>
     <row r="44">
@@ -2579,7 +2579,7 @@
         <v>-0.0219</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0177</v>
+        <v>-0.0024</v>
       </c>
       <c r="M44"/>
       <c r="N44"/>
@@ -2611,31 +2611,31 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45" t="n">
-        <v>-0.0083</v>
+        <v>0.0089</v>
       </c>
       <c r="N45" t="n">
-        <v>-0.0046</v>
+        <v>0.0119</v>
       </c>
       <c r="O45" t="n">
-        <v>-0.0032</v>
+        <v>0.013</v>
       </c>
       <c r="P45" t="n">
-        <v>-0.0029</v>
+        <v>0.0132</v>
       </c>
       <c r="Q45" t="n">
-        <v>-0.0016</v>
+        <v>0.0142</v>
       </c>
       <c r="R45" t="n">
-        <v>0.004</v>
+        <v>0.0199</v>
       </c>
       <c r="S45" t="n">
-        <v>0.0269</v>
+        <v>0.0432</v>
       </c>
       <c r="T45" t="n">
-        <v>-0.0021</v>
+        <v>0.0142</v>
       </c>
       <c r="U45" t="n">
-        <v>-0.0079</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="46">
@@ -2673,7 +2673,7 @@
         <v>0.099</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0929</v>
+        <v>0.1091</v>
       </c>
       <c r="M46"/>
       <c r="N46"/>
@@ -2705,31 +2705,31 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47" t="n">
-        <v>0.1985</v>
+        <v>0.1847</v>
       </c>
       <c r="N47" t="n">
-        <v>0.1611</v>
+        <v>0.1472</v>
       </c>
       <c r="O47" t="n">
-        <v>0.0945</v>
+        <v>0.0806</v>
       </c>
       <c r="P47" t="n">
-        <v>-0.0031</v>
+        <v>-0.0325</v>
       </c>
       <c r="Q47" t="n">
-        <v>-0.055</v>
+        <v>-0.0552</v>
       </c>
       <c r="R47" t="n">
+        <v>-0.0553</v>
+      </c>
+      <c r="S47" t="n">
         <v>-0.0555</v>
       </c>
-      <c r="S47" t="n">
-        <v>-0.0559</v>
-      </c>
       <c r="T47" t="n">
-        <v>-0.0434</v>
+        <v>-0.0429</v>
       </c>
       <c r="U47" t="n">
-        <v>-0.0313</v>
+        <v>-0.0307</v>
       </c>
     </row>
     <row r="48">
@@ -2767,7 +2767,7 @@
         <v>0.2519</v>
       </c>
       <c r="L48" t="n">
-        <v>0.3191</v>
+        <v>0.3912</v>
       </c>
       <c r="M48"/>
       <c r="N48"/>
@@ -2799,31 +2799,31 @@
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49" t="n">
-        <v>0.1792</v>
+        <v>0.251</v>
       </c>
       <c r="N49" t="n">
-        <v>0.1767</v>
+        <v>0.2128</v>
       </c>
       <c r="O49" t="n">
-        <v>0.1729</v>
+        <v>0.2085</v>
       </c>
       <c r="P49" t="n">
-        <v>0.1557</v>
+        <v>0.1906</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.1435</v>
+        <v>0.1778</v>
       </c>
       <c r="R49" t="n">
-        <v>0.1055</v>
+        <v>0.1394</v>
       </c>
       <c r="S49" t="n">
-        <v>0.0364</v>
+        <v>0.0697</v>
       </c>
       <c r="T49" t="n">
-        <v>0.0099</v>
+        <v>0.0098</v>
       </c>
       <c r="U49" t="n">
-        <v>0.0113</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="50">
@@ -2861,7 +2861,7 @@
         <v>0.0018</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0023</v>
+        <v>-0.0041</v>
       </c>
       <c r="M50"/>
       <c r="N50"/>
@@ -2955,7 +2955,7 @@
         <v>183.8</v>
       </c>
       <c r="L52" t="n">
-        <v>175.4</v>
+        <v>175.5</v>
       </c>
       <c r="M52"/>
       <c r="N52"/>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="M58"/>
       <c r="N58"/>
@@ -3460,22 +3460,22 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.0014</v>
+        <v>0.0013</v>
       </c>
       <c r="R63" t="n">
         <v>0.0006</v>
       </c>
       <c r="S63" t="n">
-        <v>0.0006</v>
+        <v>0.0005</v>
       </c>
       <c r="T63" t="n">
         <v>0</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1.3404</v>
+        <v>1.3749</v>
       </c>
       <c r="M64"/>
       <c r="N64"/>
@@ -3551,31 +3551,31 @@
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65" t="n">
-        <v>-1.3452</v>
+        <v>-1.3455</v>
       </c>
       <c r="N65" t="n">
-        <v>0.004</v>
+        <v>0.0037</v>
       </c>
       <c r="O65" t="n">
-        <v>0.0081</v>
+        <v>0.0075</v>
       </c>
       <c r="P65" t="n">
-        <v>0.0101</v>
+        <v>0.0094</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.0029</v>
+        <v>0.0027</v>
       </c>
       <c r="R65" t="n">
-        <v>0.0029</v>
+        <v>0.0027</v>
       </c>
       <c r="S65" t="n">
-        <v>0.0094</v>
+        <v>0.0087</v>
       </c>
       <c r="T65" t="n">
-        <v>32.2654</v>
+        <v>32.2647</v>
       </c>
       <c r="U65" t="n">
-        <v>-0.1226</v>
+        <v>-0.1227</v>
       </c>
     </row>
     <row r="66">
@@ -3613,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>0.0096</v>
       </c>
       <c r="M66"/>
       <c r="N66"/>
@@ -3645,31 +3645,31 @@
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67" t="n">
-        <v>0.0002</v>
+        <v>0.0098</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0008</v>
+        <v>0.0102</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0005</v>
+        <v>0.0098</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0002</v>
+        <v>0.0093</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0003</v>
+        <v>0.0092</v>
       </c>
       <c r="R67" t="n">
-        <v>0.0001</v>
+        <v>0.0088</v>
       </c>
       <c r="S67" t="n">
-        <v>0.0001</v>
+        <v>0.0144</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.1855</v>
+        <v>-0.1656</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.1883</v>
+        <v>-0.1627</v>
       </c>
     </row>
     <row r="68">
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>0.0015</v>
       </c>
       <c r="M68"/>
       <c r="N68"/>
@@ -3739,31 +3739,31 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69" t="n">
+        <v>-0.0348</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-0.0338</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-0.0313</v>
+      </c>
+      <c r="P69" t="n">
+        <v>-0.0321</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.0027</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.0013</v>
+      </c>
+      <c r="S69" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="N69" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="R69" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="S69" t="n">
-        <v>-0.0014</v>
-      </c>
       <c r="T69" t="n">
-        <v>5.5461</v>
+        <v>5.5475</v>
       </c>
       <c r="U69" t="n">
-        <v>5.5245</v>
+        <v>5.5261</v>
       </c>
     </row>
     <row r="70">
@@ -3801,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>-0.0027</v>
       </c>
       <c r="M70"/>
       <c r="N70"/>
@@ -3833,31 +3833,31 @@
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71" t="n">
-        <v>-0.001</v>
+        <v>-0.0481</v>
       </c>
       <c r="N71" t="n">
-        <v>-0.005</v>
+        <v>-0.094</v>
       </c>
       <c r="O71" t="n">
-        <v>-0.0107</v>
+        <v>-0.1186</v>
       </c>
       <c r="P71" t="n">
-        <v>-0.0107</v>
+        <v>-0.1367</v>
       </c>
       <c r="Q71" t="n">
-        <v>-0.0113</v>
+        <v>-0.1546</v>
       </c>
       <c r="R71" t="n">
-        <v>-0.0094</v>
+        <v>-0.1724</v>
       </c>
       <c r="S71" t="n">
-        <v>-0.0051</v>
+        <v>-0.184</v>
       </c>
       <c r="T71" t="n">
-        <v>-7.4565</v>
+        <v>-7.6475</v>
       </c>
       <c r="U71" t="n">
-        <v>-7.3088</v>
+        <v>-7.4936</v>
       </c>
     </row>
     <row r="72">
@@ -3927,7 +3927,7 @@
       <c r="K73"/>
       <c r="L73"/>
       <c r="M73" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="N73" t="n">
         <v>0.0005</v>
@@ -3951,7 +3951,7 @@
         <v>0.0035</v>
       </c>
       <c r="U73" t="n">
-        <v>0.0025</v>
+        <v>0.0024</v>
       </c>
     </row>
     <row r="74">
@@ -4021,19 +4021,19 @@
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75" t="n">
-        <v>0.0005</v>
+        <v>0.0004</v>
       </c>
       <c r="N75" t="n">
-        <v>0.002</v>
+        <v>0.0019</v>
       </c>
       <c r="O75" t="n">
-        <v>0.0013</v>
+        <v>0.0012</v>
       </c>
       <c r="P75" t="n">
         <v>0.001</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.0009</v>
+        <v>0.0008</v>
       </c>
       <c r="R75" t="n">
         <v>0.0005</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>-0.0006</v>
       </c>
       <c r="M76"/>
       <c r="N76"/>
@@ -4177,7 +4177,7 @@
         <v>-0.0743</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.0437</v>
+        <v>-0.0401</v>
       </c>
       <c r="M78"/>
       <c r="N78"/>
@@ -4209,31 +4209,31 @@
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79" t="n">
-        <v>-0.0742</v>
+        <v>-0.0706</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0048</v>
+        <v>0.0082</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0063</v>
+        <v>0.0095</v>
       </c>
       <c r="P79" t="n">
-        <v>-0.0237</v>
+        <v>-0.0238</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.0046</v>
+        <v>0.0045</v>
       </c>
       <c r="R79" t="n">
-        <v>0.0038</v>
+        <v>0.0037</v>
       </c>
       <c r="S79" t="n">
-        <v>0.0044</v>
+        <v>0.0043</v>
       </c>
       <c r="T79" t="n">
-        <v>6.6293</v>
+        <v>6.6292</v>
       </c>
       <c r="U79" t="n">
-        <v>6.5085</v>
+        <v>6.5084</v>
       </c>
     </row>
     <row r="80">
@@ -4247,31 +4247,31 @@
         <v>52</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>0.0646</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>0.0296</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>0.0274</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.0173</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>-0.0131</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>-0.0124</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>-0.0118</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>-0.0109</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>-0.0095</v>
       </c>
       <c r="M80"/>
       <c r="N80"/>
@@ -4303,31 +4303,31 @@
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>-0.1412</v>
       </c>
       <c r="N81" t="n">
-        <v>-0.0001</v>
+        <v>-0.1177</v>
       </c>
       <c r="O81" t="n">
-        <v>-0.0001</v>
+        <v>-0.108</v>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>-0.0974</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>-0.0583</v>
       </c>
       <c r="R81" t="n">
-        <v>0</v>
+        <v>-0.0323</v>
       </c>
       <c r="S81" t="n">
-        <v>0</v>
+        <v>-0.0319</v>
       </c>
       <c r="T81" t="n">
-        <v>0.0052</v>
+        <v>-0.0202</v>
       </c>
       <c r="U81" t="n">
-        <v>0.0037</v>
+        <v>0.0022</v>
       </c>
     </row>
     <row r="82">
@@ -4397,25 +4397,25 @@
       <c r="K83"/>
       <c r="L83"/>
       <c r="M83" t="n">
-        <v>0.0031</v>
+        <v>0.0023</v>
       </c>
       <c r="N83" t="n">
+        <v>0.0043</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.0061</v>
+      </c>
+      <c r="Q83" t="n">
         <v>0.0046</v>
       </c>
-      <c r="O83" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0.0066</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>0.0049</v>
-      </c>
       <c r="R83" t="n">
-        <v>0.0021</v>
+        <v>0.002</v>
       </c>
       <c r="S83" t="n">
-        <v>0.0007</v>
+        <v>0.0006</v>
       </c>
       <c r="T83" t="n">
         <v>0.0592</v>
@@ -4491,10 +4491,10 @@
       <c r="K85"/>
       <c r="L85"/>
       <c r="M85" t="n">
-        <v>0.0007</v>
+        <v>0.0005</v>
       </c>
       <c r="N85" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -4529,31 +4529,31 @@
         <v>52</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>0.0646</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>0.0296</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>0.0274</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>0.0173</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>-0.0131</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2262</v>
+        <v>0.169</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.0471</v>
+        <v>-0.0891</v>
       </c>
       <c r="K86" t="n">
-        <v>0.3108</v>
+        <v>0.2847</v>
       </c>
       <c r="L86" t="n">
-        <v>0.4717</v>
+        <v>0.5251</v>
       </c>
       <c r="M86"/>
       <c r="N86"/>
@@ -4585,31 +4585,31 @@
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87" t="n">
-        <v>0.4582</v>
+        <v>0.1578</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3454</v>
+        <v>0.1577</v>
       </c>
       <c r="O87" t="n">
-        <v>0.1632</v>
+        <v>0.036</v>
       </c>
       <c r="P87" t="n">
-        <v>-0.0765</v>
+        <v>-0.3273</v>
       </c>
       <c r="Q87" t="n">
-        <v>-0.2112</v>
+        <v>-0.3286</v>
       </c>
       <c r="R87" t="n">
-        <v>-0.2118</v>
+        <v>-0.3175</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.7086</v>
+        <v>-0.3933</v>
       </c>
       <c r="T87" t="n">
-        <v>72.1432</v>
+        <v>72.203</v>
       </c>
       <c r="U87" t="n">
-        <v>1.9752</v>
+        <v>1.6735</v>
       </c>
     </row>
     <row r="88">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>142.5993</v>
+        <v>106.1993</v>
       </c>
       <c r="M88"/>
       <c r="N88"/>
@@ -4679,31 +4679,31 @@
       <c r="K89"/>
       <c r="L89"/>
       <c r="M89" t="n">
-        <v>541.3327</v>
+        <v>504.6185</v>
       </c>
       <c r="N89" t="n">
-        <v>546.7735</v>
+        <v>509.6903</v>
       </c>
       <c r="O89" t="n">
-        <v>553.0265</v>
+        <v>515.5192</v>
       </c>
       <c r="P89" t="n">
-        <v>559.6347</v>
+        <v>521.6792</v>
       </c>
       <c r="Q89" t="n">
-        <v>566.3776</v>
+        <v>527.9648</v>
       </c>
       <c r="R89" t="n">
-        <v>573.3592</v>
+        <v>534.4729</v>
       </c>
       <c r="S89" t="n">
-        <v>580.4735</v>
+        <v>541.1047</v>
       </c>
       <c r="T89" t="n">
-        <v>587.4184</v>
+        <v>547.5786</v>
       </c>
       <c r="U89" t="n">
-        <v>594.2653</v>
+        <v>553.9611</v>
       </c>
     </row>
     <row r="90">
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="L90" t="n">
-        <v>1.3404</v>
+        <v>1.3551</v>
       </c>
       <c r="M90"/>
       <c r="N90"/>
@@ -4773,16 +4773,16 @@
       <c r="K91"/>
       <c r="L91"/>
       <c r="M91" t="n">
-        <v>-1.3455</v>
+        <v>-1.3457</v>
       </c>
       <c r="N91" t="n">
         <v>0.0012</v>
       </c>
       <c r="O91" t="n">
-        <v>0.0053</v>
+        <v>0.005</v>
       </c>
       <c r="P91" t="n">
-        <v>0.0076</v>
+        <v>0.0071</v>
       </c>
       <c r="Q91" t="n">
         <v>0.0003</v>
@@ -4791,10 +4791,10 @@
         <v>-0.0002</v>
       </c>
       <c r="S91" t="n">
-        <v>0.0065</v>
+        <v>0.006</v>
       </c>
       <c r="T91" t="n">
-        <v>6.5549</v>
+        <v>6.5546</v>
       </c>
       <c r="U91" t="n">
         <v>-0.0385</v>
@@ -4964,10 +4964,10 @@
         <v>0.0001</v>
       </c>
       <c r="N95" t="n">
-        <v>0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0124</v>
+        <v>0.0116</v>
       </c>
       <c r="P95" t="n">
         <v>0</v>
@@ -5055,7 +5055,7 @@
       <c r="K97"/>
       <c r="L97"/>
       <c r="M97" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -5117,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>-1.3404</v>
+        <v>-1.2439</v>
       </c>
       <c r="M98"/>
       <c r="N98"/>
@@ -5149,31 +5149,31 @@
       <c r="K99"/>
       <c r="L99"/>
       <c r="M99" t="n">
-        <v>1.3457</v>
+        <v>1.3458</v>
       </c>
       <c r="N99" t="n">
         <v>-0.0009</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.0045</v>
+        <v>-0.0043</v>
       </c>
       <c r="P99" t="n">
-        <v>-0.0064</v>
+        <v>-0.006</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.0013</v>
+        <v>0.0011</v>
       </c>
       <c r="R99" t="n">
-        <v>0.0022</v>
+        <v>0.002</v>
       </c>
       <c r="S99" t="n">
-        <v>-0.0044</v>
+        <v>-0.0042</v>
       </c>
       <c r="T99" t="n">
-        <v>38.1627</v>
+        <v>38.1628</v>
       </c>
       <c r="U99" t="n">
-        <v>-0.0685</v>
+        <v>-0.0687</v>
       </c>
     </row>
     <row r="100">
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>0.0153</v>
       </c>
       <c r="M100"/>
       <c r="N100"/>
@@ -5243,31 +5243,31 @@
       <c r="K101"/>
       <c r="L101"/>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>0.0173</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0001</v>
+        <v>0.0166</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0001</v>
+        <v>0.0163</v>
       </c>
       <c r="P101" t="n">
-        <v>0.0001</v>
+        <v>0.0161</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>0.0158</v>
       </c>
       <c r="R101" t="n">
-        <v>-0.0001</v>
+        <v>0.0159</v>
       </c>
       <c r="S101" t="n">
-        <v>-0.0005</v>
+        <v>0.0157</v>
       </c>
       <c r="T101" t="n">
-        <v>-0.0613</v>
+        <v>-0.0449</v>
       </c>
       <c r="U101" t="n">
-        <v>-0.0613</v>
+        <v>-0.0449</v>
       </c>
     </row>
     <row r="102">
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>0.0161</v>
       </c>
       <c r="M102"/>
       <c r="N102"/>
@@ -5337,31 +5337,31 @@
       <c r="K103"/>
       <c r="L103"/>
       <c r="M103" t="n">
-        <v>-0.0011</v>
+        <v>-0.0149</v>
       </c>
       <c r="N103" t="n">
-        <v>-0.0033</v>
+        <v>-0.0172</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.0019</v>
+        <v>-0.0159</v>
       </c>
       <c r="P103" t="n">
-        <v>0.0001</v>
+        <v>-0.0293</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.0011</v>
+        <v>0.001</v>
       </c>
       <c r="R103" t="n">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
       <c r="S103" t="n">
-        <v>0.0011</v>
+        <v>0.0016</v>
       </c>
       <c r="T103" t="n">
-        <v>0.7709</v>
+        <v>0.7714</v>
       </c>
       <c r="U103" t="n">
-        <v>0.7537</v>
+        <v>0.7542</v>
       </c>
     </row>
     <row r="104">
@@ -5399,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>0.072</v>
       </c>
       <c r="M104"/>
       <c r="N104"/>
@@ -5431,31 +5431,31 @@
       <c r="K105"/>
       <c r="L105"/>
       <c r="M105" t="n">
-        <v>-0.001</v>
+        <v>0.0709</v>
       </c>
       <c r="N105" t="n">
-        <v>-0.0036</v>
+        <v>0.0325</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.0035</v>
+        <v>0.032</v>
       </c>
       <c r="P105" t="n">
-        <v>-0.0032</v>
+        <v>0.0317</v>
       </c>
       <c r="Q105" t="n">
-        <v>-0.0029</v>
+        <v>0.0315</v>
       </c>
       <c r="R105" t="n">
-        <v>-0.0022</v>
+        <v>0.0317</v>
       </c>
       <c r="S105" t="n">
-        <v>-0.0007</v>
+        <v>0.0325</v>
       </c>
       <c r="T105" t="n">
-        <v>-3.9089</v>
+        <v>-3.9091</v>
       </c>
       <c r="U105" t="n">
-        <v>-3.865</v>
+        <v>-3.8652</v>
       </c>
     </row>
     <row r="106">
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>-0.0018</v>
       </c>
       <c r="M106"/>
       <c r="N106"/>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M108"/>
       <c r="N108"/>
@@ -5810,7 +5810,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>-0.0001</v>
+        <v>0</v>
       </c>
       <c r="O113" t="n">
         <v>-0.0001</v>
@@ -5822,7 +5822,7 @@
         <v>-0.0002</v>
       </c>
       <c r="R113" t="n">
-        <v>-0.0003</v>
+        <v>-0.0002</v>
       </c>
       <c r="S113" t="n">
         <v>-0.0002</v>

--- a/results/08-2023/contributions-comparison-08-2023.xlsx
+++ b/results/08-2023/contributions-comparison-08-2023.xlsx
@@ -972,16 +972,16 @@
         <v>-0.0509</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0513</v>
+        <v>0.1279</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0293</v>
+        <v>-0.0301</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0546</v>
+        <v>0.3153</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0499</v>
+        <v>0.2814</v>
       </c>
       <c r="M10"/>
       <c r="N10"/>
@@ -1013,31 +1013,31 @@
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11" t="n">
-        <v>-0.0331</v>
+        <v>0.3319</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.028</v>
+        <v>0.3106</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0166</v>
+        <v>0.2054</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0021</v>
+        <v>-0.0771</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0045</v>
+        <v>-0.1953</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0061</v>
+        <v>-0.1772</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0077</v>
+        <v>-0.244</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0232</v>
+        <v>-0.1845</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0155</v>
+        <v>-0.1351</v>
       </c>
     </row>
     <row r="12">
@@ -3604,16 +3604,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.1792</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0096</v>
+        <v>0.3409</v>
       </c>
       <c r="M66"/>
       <c r="N66"/>
@@ -3645,31 +3645,31 @@
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67" t="n">
-        <v>0.0098</v>
+        <v>0.3748</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0102</v>
+        <v>0.3488</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0098</v>
+        <v>0.2318</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0093</v>
+        <v>-0.0657</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.0092</v>
+        <v>-0.1816</v>
       </c>
       <c r="R67" t="n">
-        <v>0.0088</v>
+        <v>-0.1745</v>
       </c>
       <c r="S67" t="n">
-        <v>0.0144</v>
+        <v>-0.2373</v>
       </c>
       <c r="T67" t="n">
-        <v>-0.1656</v>
+        <v>-0.3733</v>
       </c>
       <c r="U67" t="n">
-        <v>-0.1627</v>
+        <v>-0.3133</v>
       </c>
     </row>
     <row r="68">
